--- a/regionseng/4/trade/trade.xlsx
+++ b/regionseng/4/trade/trade.xlsx
@@ -61,13 +61,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;\-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,12 +139,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -190,7 +183,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -218,15 +211,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -534,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -546,7 +530,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" customHeight="1">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -565,8 +549,10 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>2006</v>
@@ -613,8 +599,14 @@
       <c r="P3" s="3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="3">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -660,11 +652,17 @@
       <c r="O4" s="5">
         <v>2925.9</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="5">
         <v>2504.3000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="5">
+        <v>2789.9</v>
+      </c>
+      <c r="R4" s="5">
+        <v>4079.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -710,11 +708,17 @@
       <c r="O5" s="5">
         <v>516.6</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="5">
         <v>441.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="5">
+        <v>533.1</v>
+      </c>
+      <c r="R5" s="5">
+        <v>726.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -760,11 +764,17 @@
       <c r="O6" s="6">
         <v>16647</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="6">
         <v>14355</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="6">
+        <v>17121</v>
+      </c>
+      <c r="R6" s="6">
+        <v>17420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -810,11 +820,17 @@
       <c r="O7" s="6">
         <v>12255</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="6">
         <v>11334</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="6">
+        <v>12356</v>
+      </c>
+      <c r="R7" s="6">
+        <v>15015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -860,11 +876,17 @@
       <c r="O8" s="5">
         <v>667</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="5">
         <v>634.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="5">
+        <v>657.6</v>
+      </c>
+      <c r="R8" s="5">
+        <v>845.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -910,11 +932,17 @@
       <c r="O9" s="5">
         <v>146.4</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="5">
         <v>114.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="5">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="R9" s="5">
+        <v>159.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -960,11 +988,17 @@
       <c r="O10" s="5">
         <v>100</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="5">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="5">
+        <v>99.1</v>
+      </c>
+      <c r="R10" s="5">
+        <v>154.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1010,11 +1044,17 @@
       <c r="O11" s="5">
         <v>370.3</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="5">
         <v>327</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="5">
+        <v>384.3</v>
+      </c>
+      <c r="R11" s="5">
+        <v>567.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1060,11 +1100,17 @@
       <c r="O12" s="5">
         <v>49.5</v>
       </c>
-      <c r="P12" s="16">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12" s="5">
+        <v>327</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>31.9</v>
+      </c>
+      <c r="R12" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1110,11 +1156,17 @@
       <c r="O13" s="5">
         <v>2685.3</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="5">
         <v>2294.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="5">
+        <v>2532.3000000000002</v>
+      </c>
+      <c r="R13" s="5">
+        <v>3711.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1160,11 +1212,17 @@
       <c r="O14" s="5">
         <v>2547.6999999999998</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="5">
         <v>2185.3000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="12.75">
+      <c r="Q14" s="5">
+        <v>2388</v>
+      </c>
+      <c r="R14" s="5">
+        <v>3555.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="8" customFormat="1" ht="12.75">
       <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1248,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regionseng/4/trade/trade.xlsx
+++ b/regionseng/4/trade/trade.xlsx
@@ -518,19 +518,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="85.85546875" style="1" customWidth="1"/>
+    <col min="2" max="19" width="9.5703125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.5" customHeight="1">
+    <row r="1" spans="1:19" ht="22.5" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -551,8 +552,9 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S1" s="13"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>2006</v>
@@ -605,8 +607,11 @@
       <c r="R3" s="3">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -661,8 +666,11 @@
       <c r="R4" s="5">
         <v>4079.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="5">
+        <v>4104.3999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -717,8 +725,11 @@
       <c r="R5" s="5">
         <v>726.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="5">
+        <v>837.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -773,8 +784,11 @@
       <c r="R6" s="6">
         <v>17420</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="6">
+        <v>17903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -829,8 +843,11 @@
       <c r="R7" s="6">
         <v>15015</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="6">
+        <v>15676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -885,8 +902,11 @@
       <c r="R8" s="5">
         <v>845.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="5">
+        <v>982.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -941,8 +961,11 @@
       <c r="R9" s="5">
         <v>159.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="5">
+        <v>195.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -997,8 +1020,11 @@
       <c r="R10" s="5">
         <v>154.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="5">
+        <v>187.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1053,8 +1079,11 @@
       <c r="R11" s="5">
         <v>567.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="5">
+        <v>641.79999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1138,11 @@
       <c r="R12" s="5">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="5">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1165,8 +1197,11 @@
       <c r="R13" s="5">
         <v>3711.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="5">
+        <v>3658.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1221,8 +1256,11 @@
       <c r="R14" s="5">
         <v>3555.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="8" customFormat="1" ht="12.75">
+      <c r="S14" s="5">
+        <v>3472.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="8" customFormat="1" ht="12.75">
       <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1286,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
